--- a/W1D1-M2-1-2-ESERCIZIO-EXTRA.xlsx
+++ b/W1D1-M2-1-2-ESERCIZIO-EXTRA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benti\Documents\Corso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benti\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29B475-B493-4EC2-BED1-619DAA44EBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500018C9-0CE6-46B4-9183-C9C93B9BAB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcheggio" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
   <si>
     <t>TARGA</t>
   </si>
@@ -376,18 +376,6 @@
   </si>
   <si>
     <t>Uva</t>
-  </si>
-  <si>
-    <t>LEGENDA</t>
-  </si>
-  <si>
-    <t>0= Iniziale targa A-F</t>
-  </si>
-  <si>
-    <t>1= Iniziale targa G-M</t>
-  </si>
-  <si>
-    <t>2= Iniziale targa N-Z</t>
   </si>
   <si>
     <t>SOGGETTO</t>
@@ -408,20 +396,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,29 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -468,123 +426,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -607,64 +457,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -883,10 +692,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -899,23 +708,21 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -931,1677 +738,1666 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="3">
         <v>1.5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>IF(AND(LEFT(A2,1)&gt;="A", LEFT(A2, 1)&lt;="F"),0, IF(AND(LEFT(A2,1)&gt;="G",LEFT(A2,1)&lt;="M"),1,IF(AND(LEFT(A2,1)&gt;="N",LEFT(A2,1)&lt;="Z"),2," ")))</f>
         <v>0</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="9">
         <f>IF(C2=0,CONVERT(B2,"hr","mn")/30*2,IF(C2=1,CONVERT(B2,"hr","mn")/30*1.5, IF(C2=2,B2*2,"")))</f>
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="3">
         <v>2.5</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C66" si="0">IF(AND(LEFT(A3,1)&gt;="A", LEFT(A3, 1)&lt;="F"),0, IF(AND(LEFT(A3,1)&gt;="G",LEFT(A3,1)&lt;="M"),1,IF(AND(LEFT(A3,1)&gt;="N",LEFT(A3,1)&lt;="Z"),2," ")))</f>
         <v>1</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D66" si="1">IF(C3=0,CONVERT(B3,"hr","mn")/30*2,IF(C3=1,CONVERT(B3,"hr","mn")/30*1.5, IF(C3=2,B3*2,"")))</f>
         <v>7.5</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="3">
         <v>3.5</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="3">
         <v>4.5</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="3">
         <v>5.5</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="3">
         <v>6.5</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="3">
         <v>7.5</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="3">
         <v>8.5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="9">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="3">
         <v>9.5</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="3">
         <v>10</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="3">
         <v>0.5</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="9">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="3">
         <v>5</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="3">
         <v>6</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="3">
         <v>7</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="3">
         <v>8</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="3">
         <v>9</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="3">
         <v>10</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="3">
         <v>0.5</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="3">
         <v>2</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="3">
         <v>3</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="3">
         <v>4</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="3">
         <v>6</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="3">
         <v>7</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="3">
         <v>8</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="3">
         <v>9</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="3">
         <v>10</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="3">
         <v>0.5</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="3">
         <v>1</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="3">
         <v>2</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="3">
         <v>3</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="3">
         <v>4</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="3">
         <v>5</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="3">
         <v>6</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="3">
         <v>7</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="3">
         <v>8</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="3">
         <v>9</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="3">
         <v>10</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="3">
         <v>0.5</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="3">
         <v>1</v>
       </c>
       <c r="C46" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="3">
         <v>2</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="3">
         <v>3</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="3">
         <v>4</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="3">
         <v>5</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="3">
         <v>6</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="3">
         <v>7</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="3">
         <v>8</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="3">
         <v>9</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="3">
         <v>10</v>
       </c>
       <c r="C55" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="3">
         <v>0.5</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="3">
         <v>2</v>
       </c>
       <c r="C58" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="3">
         <v>3</v>
       </c>
       <c r="C59" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="3">
         <v>4</v>
       </c>
       <c r="C60" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="3">
         <v>5</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D61" s="22">
+      <c r="D61" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="3">
         <v>6</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="3">
         <v>7</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="3">
         <v>8</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="3">
         <v>9</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B66" s="3">
         <v>10</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D66" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="3">
         <v>0.5</v>
       </c>
       <c r="C67" s="3">
         <f t="shared" ref="C67:C101" si="2">IF(AND(LEFT(A67,1)&gt;="A", LEFT(A67, 1)&lt;="F"),0, IF(AND(LEFT(A67,1)&gt;="G",LEFT(A67,1)&lt;="M"),1,IF(AND(LEFT(A67,1)&gt;="N",LEFT(A67,1)&lt;="Z"),2," ")))</f>
         <v>2</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="9">
         <f t="shared" ref="D67:D101" si="3">IF(C67=0,CONVERT(B67,"hr","mn")/30*2,IF(C67=1,CONVERT(B67,"hr","mn")/30*1.5, IF(C67=2,B67*2,"")))</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="C68" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="3">
         <v>2</v>
       </c>
       <c r="C69" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="19">
+      <c r="B70" s="3">
         <v>3</v>
       </c>
       <c r="C70" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="9">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="19">
+      <c r="B71" s="3">
         <v>4</v>
       </c>
       <c r="C71" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="3">
         <v>5</v>
       </c>
       <c r="C72" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B73" s="3">
         <v>6</v>
       </c>
       <c r="C73" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="9">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="19">
+      <c r="B74" s="3">
         <v>7</v>
       </c>
       <c r="C74" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D74" s="9">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="19">
+      <c r="B75" s="3">
         <v>8</v>
       </c>
       <c r="C75" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="9">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B76" s="3">
         <v>9</v>
       </c>
       <c r="C76" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="9">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="19">
+      <c r="B77" s="3">
         <v>10</v>
       </c>
       <c r="C77" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="9">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B78" s="3">
         <v>0.5</v>
       </c>
       <c r="C78" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D78" s="22">
+      <c r="D78" s="9">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="3">
         <v>1</v>
       </c>
       <c r="C79" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="3">
         <v>2</v>
       </c>
       <c r="C80" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="3">
         <v>3</v>
       </c>
       <c r="C81" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="9">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="3">
         <v>4</v>
       </c>
       <c r="C82" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="3">
         <v>5</v>
       </c>
       <c r="C83" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="3">
         <v>6</v>
       </c>
       <c r="C84" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="3">
         <v>7</v>
       </c>
       <c r="C85" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="3">
         <v>8</v>
       </c>
       <c r="C86" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D86" s="9">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="3">
         <v>9</v>
       </c>
       <c r="C87" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="9">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B88" s="3">
         <v>10</v>
       </c>
       <c r="C88" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="9">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="3">
         <v>0.5</v>
       </c>
       <c r="C89" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="9">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="9">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="19">
+      <c r="B91" s="3">
         <v>2</v>
       </c>
       <c r="C91" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="9">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="19">
+      <c r="B92" s="3">
         <v>3</v>
       </c>
       <c r="C92" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="9">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="3">
         <v>4</v>
       </c>
       <c r="C93" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="19">
+      <c r="B94" s="3">
         <v>5</v>
       </c>
       <c r="C94" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="19">
+      <c r="B95" s="3">
         <v>6</v>
       </c>
       <c r="C95" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B96" s="3">
         <v>7</v>
       </c>
       <c r="C96" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="19">
+      <c r="B97" s="3">
         <v>8</v>
       </c>
       <c r="C97" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="9">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="19">
+      <c r="B98" s="3">
         <v>9</v>
       </c>
       <c r="C98" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="9">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="19">
+      <c r="B99" s="3">
         <v>10</v>
       </c>
       <c r="C99" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="9">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="19">
+      <c r="B100" s="3">
         <v>0.5</v>
       </c>
       <c r="C100" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="19">
+      <c r="B101" s="3">
         <v>1</v>
       </c>
       <c r="C101" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="9">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A101">
-    <cfRule type="uniqueValues" priority="7"/>
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="C2:C101">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2609,64 +2405,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B101">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="10"/>
-        <color theme="7"/>
-        <color theme="5"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C101">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D101">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2682,41 +2420,41 @@
   </sheetPr>
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="10" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>117</v>
+      <c r="E1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2740,615 +2478,615 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="3">
         <v>55</v>
       </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="E2" s="32" t="s">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="3">
         <f>COUNTIF(FRT,E2)</f>
         <v>11</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="3">
         <f>SUMIF(FRT,E2,PES)</f>
         <v>525</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="3">
         <f>SUMIFS(COST,FRT,E2,PES,"&gt;80")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="3">
         <v>70</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="3">
         <v>80</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="3">
         <f>COUNTIF(FRT,E3)</f>
         <v>14</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="3">
         <f>SUMIF(FRT,E3,PES)</f>
         <v>755</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="3">
         <f>SUMIFS(COST,FRT,E3,PES,"&gt;80")</f>
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="3">
         <v>40</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="3">
         <v>60</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="3">
         <f>COUNTIF(FRT,E4)</f>
         <v>11</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="3">
         <f>SUMIF(FRT,E4,PES)</f>
         <v>555</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="3">
         <f>SUMIFS(COST,FRT,E4,PES,"&gt;80")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="3">
         <f>COUNTIF(FRT,E5)</f>
         <v>7</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="3">
         <f>SUMIF(FRT,E5,PES)</f>
         <v>380</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="3">
         <f>SUMIFS(COST,FRT,E5,PES,"&gt;80")</f>
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="3">
         <v>90</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="3">
         <f>COUNTIF(FRT,E6)</f>
         <v>3</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="3">
         <f>SUMIF(FRT,E6,PES)</f>
         <v>160</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="3">
         <f>SUMIFS(COST,FRT,E6,PES,"&gt;80")</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="3">
         <v>50</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="3">
         <v>40</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="3">
         <v>60</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="3">
         <v>55</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="3">
         <v>45</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="3">
         <v>25</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="3">
         <v>85</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="3">
         <v>35</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="3">
         <v>50</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="3">
         <v>60</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="3">
         <v>95</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="3">
         <v>80</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="3">
         <v>40</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="3">
         <v>45</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="3">
         <v>65</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="3">
         <v>65</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="3">
         <v>55</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="3">
         <v>30</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="3">
         <v>70</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="3">
         <v>45</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="3">
         <v>80</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="3">
         <v>25</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="3">
         <v>60</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="3">
         <v>35</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="3">
         <v>60</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="3">
         <v>30</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="3">
         <v>70</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="3">
         <v>40</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="3">
         <v>45</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="3">
         <v>55</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="3">
         <v>25</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="3">
         <v>70</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="3">
         <v>35</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="3">
         <v>60</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="3">
         <v>50</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="3">
         <v>80</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="3">
         <v>95</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="3">
         <v>40</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="3">
         <v>75</v>
       </c>
-      <c r="E28" s="35"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="3">
         <v>65</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="3">
         <v>45</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="3">
         <v>55</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="3">
         <v>65</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="3">
         <v>70</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="3">
         <v>30</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="3">
         <v>45</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="3">
         <v>25</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="3">
         <v>80</v>
       </c>
-      <c r="E33" s="35"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="3">
         <v>35</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="3">
         <v>60</v>
       </c>
-      <c r="E34" s="35"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="3">
         <v>60</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="35"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="3">
         <v>80</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="3">
         <v>30</v>
       </c>
-      <c r="E36" s="35"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="3">
         <v>40</v>
       </c>
-      <c r="C37" s="28">
+      <c r="C37" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="3">
         <v>65</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="3">
         <v>55</v>
       </c>
-      <c r="E38" s="35"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="3">
         <v>55</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="3">
         <v>70</v>
       </c>
-      <c r="E39" s="35"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="3">
         <v>70</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="3">
         <v>85</v>
       </c>
-      <c r="E40" s="35"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="3">
         <v>50</v>
       </c>
-      <c r="E41" s="35"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="3">
         <v>20</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="3">
         <v>95</v>
       </c>
-      <c r="E42" s="35"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="3">
         <v>90</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="3">
         <v>75</v>
       </c>
-      <c r="E43" s="35"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="3">
         <v>50</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="3">
         <v>45</v>
       </c>
-      <c r="E44" s="35"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="3">
         <v>60</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="3">
         <v>65</v>
       </c>
-      <c r="E45" s="35"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="3">
         <v>45</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="27">
+      <c r="B47" s="3">
         <v>25</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="3">
         <v>0</v>
       </c>
     </row>
